--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -64,7 +64,7 @@
     <t>60天</t>
   </si>
   <si>
-    <t>GIT安装与常用命令</t>
+    <t>GIT安装与常用命令、GIT远端仓库</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I6"/>
+      <selection activeCell="C7" sqref="C7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="65">
   <si>
     <t>学习日期</t>
   </si>
@@ -58,13 +58,172 @@
     <t>30天</t>
   </si>
   <si>
-    <t>45天</t>
-  </si>
-  <si>
     <t>60天</t>
   </si>
   <si>
-    <t>GIT安装与常用命令、GIT远端仓库</t>
+    <t>90天</t>
+  </si>
+  <si>
+    <t>一元函数微分学的概念</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>一元函数微分学的计算</t>
+  </si>
+  <si>
+    <t>物理层</t>
+  </si>
+  <si>
+    <t>线性方程组</t>
+  </si>
+  <si>
+    <t>矩阵的秩</t>
+  </si>
+  <si>
+    <t>存储系统3.1~3.3</t>
+  </si>
+  <si>
+    <t>存储系统3.4~3.5</t>
+  </si>
+  <si>
+    <t>一元函数微分学的几何应用</t>
+  </si>
+  <si>
+    <t>指令系统4.1~4.2</t>
+  </si>
+  <si>
+    <t>指令系统4.3~4.4</t>
+  </si>
+  <si>
+    <t>中央处理器5.1~5.2</t>
+  </si>
+  <si>
+    <t>向量组</t>
+  </si>
+  <si>
+    <t>特征值与特征向量</t>
+  </si>
+  <si>
+    <t>CPU5.3</t>
+  </si>
+  <si>
+    <t>CPU5.4</t>
+  </si>
+  <si>
+    <t>中值定理</t>
+  </si>
+  <si>
+    <t>CPU5.6~5.7</t>
+  </si>
+  <si>
+    <t>总线</t>
+  </si>
+  <si>
+    <t>I/O 7.1~7.2</t>
+  </si>
+  <si>
+    <t>相似理论</t>
+  </si>
+  <si>
+    <t>概率论 随机事件与概率</t>
+  </si>
+  <si>
+    <t>概率论第2、3讲</t>
+  </si>
+  <si>
+    <t>一元函数积分学的概念</t>
+  </si>
+  <si>
+    <t>二次型</t>
+  </si>
+  <si>
+    <t>数据链路层3.1~3.2</t>
+  </si>
+  <si>
+    <t>概率论 多维随机变量及其分布</t>
+  </si>
+  <si>
+    <t>数据链路层3.3~3.5</t>
+  </si>
+  <si>
+    <t>一元函数积分学的计算</t>
+  </si>
+  <si>
+    <t>局域网3.6.1</t>
+  </si>
+  <si>
+    <t>局域网3.6.2</t>
+  </si>
+  <si>
+    <t>数据链路层设备3.8 网络层4.1~4.2</t>
+  </si>
+  <si>
+    <t>概率论 多维随机变量函数的分布</t>
+  </si>
+  <si>
+    <t>7.3 IO方式</t>
+  </si>
+  <si>
+    <t>局域网3.6.3</t>
+  </si>
+  <si>
+    <t>一元函数积分学的几何应用</t>
+  </si>
+  <si>
+    <t>积分等式与积分不等式</t>
+  </si>
+  <si>
+    <t>网络层4.3.1~4.3.2</t>
+  </si>
+  <si>
+    <t>网络层4.4~4.5</t>
+  </si>
+  <si>
+    <t>数据链路层3.6.4</t>
+  </si>
+  <si>
+    <t>广域网 网络层4.3.3</t>
+  </si>
+  <si>
+    <t>网络层4.6~4.7</t>
+  </si>
+  <si>
+    <t>网络层4.3.4与4.8</t>
+  </si>
+  <si>
+    <t>多元函数微分学</t>
+  </si>
+  <si>
+    <t>传输层5.1</t>
+  </si>
+  <si>
+    <t>二重积分</t>
+  </si>
+  <si>
+    <t>传输层5.2</t>
+  </si>
+  <si>
+    <t>微分方程</t>
+  </si>
+  <si>
+    <t>传输层5.3</t>
+  </si>
+  <si>
+    <t>应用层6.1~6.2</t>
+  </si>
+  <si>
+    <t>多元函数积分学的预备知识</t>
+  </si>
+  <si>
+    <t>应用层6.3~6.5</t>
+  </si>
+  <si>
+    <t>无穷级数</t>
+  </si>
+  <si>
+    <t>数据结构1、2</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109:N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1124,7 +1283,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>45572</v>
+        <v>45547</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -1136,11 +1295,21 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1">
+        <v>14</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1165,20 +1334,34 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2">
+        <v>45547</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1">
+        <v>14</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1203,20 +1386,34 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2">
+        <v>45547</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1">
+        <v>14</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1241,20 +1438,34 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2">
+        <v>45548</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1">
+        <v>13</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1279,20 +1490,34 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2">
+        <v>45548</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1">
+        <v>13</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1317,20 +1542,34 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2">
+        <v>45548</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1">
+        <v>13</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1355,20 +1594,34 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2">
+        <v>45549</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="1">
+        <v>11</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1393,20 +1646,34 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2">
+        <v>45550</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1">
+        <v>10</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1431,20 +1698,34 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2">
+        <v>45550</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1">
+        <v>10</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1469,20 +1750,34 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2">
+        <v>45551</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="1">
+        <v>9</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1507,20 +1802,34 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2">
+        <v>45551</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1">
+        <v>9</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1545,20 +1854,34 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2">
+        <v>45552</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1">
+        <v>8</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1583,20 +1906,34 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2">
+        <v>45552</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1">
+        <v>8</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -1621,20 +1958,34 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2">
+        <v>45552</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1">
+        <v>8</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1659,20 +2010,34 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2">
+        <v>45552</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" s="1">
+        <v>8</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -1697,20 +2062,34 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2">
+        <v>45553</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="J35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" s="1">
+        <v>7</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -1735,20 +2114,34 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2">
+        <v>45553</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="1">
+        <v>7</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -1773,20 +2166,34 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2">
+        <v>45554</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -1810,8 +2217,3326 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="1">
+        <v>5</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="2">
+        <v>45555</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="1">
+        <v>5</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="2">
+        <v>45556</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" s="1">
+        <v>4</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="2">
+        <v>45557</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="1">
+        <v>3</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2">
+        <v>45558</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="2">
+        <v>45559</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="2">
+        <v>45559</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="2">
+        <v>45560</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="2">
+        <v>45561</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M59" s="1">
+        <v>6</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="2">
+        <v>45561</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="1">
+        <v>6</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="1">
+        <v>5</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>45562</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="1">
+        <v>5</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>45563</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="1">
+        <v>4</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>45563</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" s="1">
+        <v>4</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>45563</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="1">
+        <v>4</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>45564</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="1">
+        <v>3</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="2">
+        <v>45567</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L87" s="1">
+        <v>3</v>
+      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="2">
+        <v>45568</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L89" s="1">
+        <v>3</v>
+      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="1">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L93" s="1">
+        <v>2</v>
+      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="2">
+        <v>45570</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="2">
+        <v>45570</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="2">
+        <v>45571</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="2">
+        <v>45572</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="2">
+        <v>45572</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="2">
+        <v>45573</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="2"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="2"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="2"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="2"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="2"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="2"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="2"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="2"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="2"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="2"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="2"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="2"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="2"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="2"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="2"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="2"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="2"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="2"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" s="2"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="1:17">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="2"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" s="2"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="A181" s="2"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" s="2"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="A185" s="2"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="A187" s="2"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" s="2"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" s="2"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+    </row>
+    <row r="192" spans="1:17">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" s="2"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="191">
+  <mergeCells count="961">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
@@ -1831,6 +5556,83 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J100"/>
+    <mergeCell ref="J101:J102"/>
+    <mergeCell ref="J103:J104"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="J113:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="J121:J122"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="J127:J128"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J133:J134"/>
+    <mergeCell ref="J135:J136"/>
+    <mergeCell ref="J137:J138"/>
+    <mergeCell ref="J139:J140"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="J147:J148"/>
+    <mergeCell ref="J149:J150"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="J153:J154"/>
+    <mergeCell ref="J155:J156"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J163:J164"/>
+    <mergeCell ref="J165:J166"/>
+    <mergeCell ref="J167:J168"/>
+    <mergeCell ref="J169:J170"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="J175:J176"/>
+    <mergeCell ref="J177:J178"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="J183:J184"/>
+    <mergeCell ref="J185:J186"/>
+    <mergeCell ref="J187:J188"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="J191:J192"/>
+    <mergeCell ref="J193:J194"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -1850,6 +5652,83 @@
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="K127:K128"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="K133:K134"/>
+    <mergeCell ref="K135:K136"/>
+    <mergeCell ref="K137:K138"/>
+    <mergeCell ref="K139:K140"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="K147:K148"/>
+    <mergeCell ref="K149:K150"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="K153:K154"/>
+    <mergeCell ref="K155:K156"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="K161:K162"/>
+    <mergeCell ref="K163:K164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="K167:K168"/>
+    <mergeCell ref="K169:K170"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="K175:K176"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="K179:K180"/>
+    <mergeCell ref="K181:K182"/>
+    <mergeCell ref="K183:K184"/>
+    <mergeCell ref="K185:K186"/>
+    <mergeCell ref="K187:K188"/>
+    <mergeCell ref="K189:K190"/>
+    <mergeCell ref="K191:K192"/>
+    <mergeCell ref="K193:K194"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
@@ -1869,6 +5748,83 @@
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="L75:L76"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="L89:L90"/>
+    <mergeCell ref="L91:L92"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="L101:L102"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="L105:L106"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L119:L120"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="L129:L130"/>
+    <mergeCell ref="L131:L132"/>
+    <mergeCell ref="L133:L134"/>
+    <mergeCell ref="L135:L136"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="L139:L140"/>
+    <mergeCell ref="L141:L142"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="L145:L146"/>
+    <mergeCell ref="L147:L148"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="L153:L154"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L161:L162"/>
+    <mergeCell ref="L163:L164"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="L167:L168"/>
+    <mergeCell ref="L169:L170"/>
+    <mergeCell ref="L171:L172"/>
+    <mergeCell ref="L173:L174"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="L177:L178"/>
+    <mergeCell ref="L179:L180"/>
+    <mergeCell ref="L181:L182"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="L185:L186"/>
+    <mergeCell ref="L187:L188"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="L191:L192"/>
+    <mergeCell ref="L193:L194"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -1888,6 +5844,83 @@
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="M37:M38"/>
     <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="M91:M92"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="M97:M98"/>
+    <mergeCell ref="M99:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="M103:M104"/>
+    <mergeCell ref="M105:M106"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="M119:M120"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="M127:M128"/>
+    <mergeCell ref="M129:M130"/>
+    <mergeCell ref="M131:M132"/>
+    <mergeCell ref="M133:M134"/>
+    <mergeCell ref="M135:M136"/>
+    <mergeCell ref="M137:M138"/>
+    <mergeCell ref="M139:M140"/>
+    <mergeCell ref="M141:M142"/>
+    <mergeCell ref="M143:M144"/>
+    <mergeCell ref="M145:M146"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="M149:M150"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="M153:M154"/>
+    <mergeCell ref="M155:M156"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="M159:M160"/>
+    <mergeCell ref="M161:M162"/>
+    <mergeCell ref="M163:M164"/>
+    <mergeCell ref="M165:M166"/>
+    <mergeCell ref="M167:M168"/>
+    <mergeCell ref="M169:M170"/>
+    <mergeCell ref="M171:M172"/>
+    <mergeCell ref="M173:M174"/>
+    <mergeCell ref="M175:M176"/>
+    <mergeCell ref="M177:M178"/>
+    <mergeCell ref="M179:M180"/>
+    <mergeCell ref="M181:M182"/>
+    <mergeCell ref="M183:M184"/>
+    <mergeCell ref="M185:M186"/>
+    <mergeCell ref="M187:M188"/>
+    <mergeCell ref="M189:M190"/>
+    <mergeCell ref="M191:M192"/>
+    <mergeCell ref="M193:M194"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
@@ -1907,6 +5940,83 @@
     <mergeCell ref="N35:N36"/>
     <mergeCell ref="N37:N38"/>
     <mergeCell ref="N39:N40"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="N67:N68"/>
+    <mergeCell ref="N69:N70"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="N73:N74"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="N83:N84"/>
+    <mergeCell ref="N85:N86"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="N97:N98"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="N103:N104"/>
+    <mergeCell ref="N105:N106"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="N113:N114"/>
+    <mergeCell ref="N115:N116"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="N119:N120"/>
+    <mergeCell ref="N121:N122"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="N125:N126"/>
+    <mergeCell ref="N127:N128"/>
+    <mergeCell ref="N129:N130"/>
+    <mergeCell ref="N131:N132"/>
+    <mergeCell ref="N133:N134"/>
+    <mergeCell ref="N135:N136"/>
+    <mergeCell ref="N137:N138"/>
+    <mergeCell ref="N139:N140"/>
+    <mergeCell ref="N141:N142"/>
+    <mergeCell ref="N143:N144"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="N149:N150"/>
+    <mergeCell ref="N151:N152"/>
+    <mergeCell ref="N153:N154"/>
+    <mergeCell ref="N155:N156"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="N159:N160"/>
+    <mergeCell ref="N161:N162"/>
+    <mergeCell ref="N163:N164"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="N167:N168"/>
+    <mergeCell ref="N169:N170"/>
+    <mergeCell ref="N171:N172"/>
+    <mergeCell ref="N173:N174"/>
+    <mergeCell ref="N175:N176"/>
+    <mergeCell ref="N177:N178"/>
+    <mergeCell ref="N179:N180"/>
+    <mergeCell ref="N181:N182"/>
+    <mergeCell ref="N183:N184"/>
+    <mergeCell ref="N185:N186"/>
+    <mergeCell ref="N187:N188"/>
+    <mergeCell ref="N189:N190"/>
+    <mergeCell ref="N191:N192"/>
+    <mergeCell ref="N193:N194"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O8"/>
@@ -1926,6 +6036,83 @@
     <mergeCell ref="O35:O36"/>
     <mergeCell ref="O37:O38"/>
     <mergeCell ref="O39:O40"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O67:O68"/>
+    <mergeCell ref="O69:O70"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O73:O74"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="O83:O84"/>
+    <mergeCell ref="O85:O86"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="O89:O90"/>
+    <mergeCell ref="O91:O92"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="O103:O104"/>
+    <mergeCell ref="O105:O106"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="O111:O112"/>
+    <mergeCell ref="O113:O114"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="O117:O118"/>
+    <mergeCell ref="O119:O120"/>
+    <mergeCell ref="O121:O122"/>
+    <mergeCell ref="O123:O124"/>
+    <mergeCell ref="O125:O126"/>
+    <mergeCell ref="O127:O128"/>
+    <mergeCell ref="O129:O130"/>
+    <mergeCell ref="O131:O132"/>
+    <mergeCell ref="O133:O134"/>
+    <mergeCell ref="O135:O136"/>
+    <mergeCell ref="O137:O138"/>
+    <mergeCell ref="O139:O140"/>
+    <mergeCell ref="O141:O142"/>
+    <mergeCell ref="O143:O144"/>
+    <mergeCell ref="O145:O146"/>
+    <mergeCell ref="O147:O148"/>
+    <mergeCell ref="O149:O150"/>
+    <mergeCell ref="O151:O152"/>
+    <mergeCell ref="O153:O154"/>
+    <mergeCell ref="O155:O156"/>
+    <mergeCell ref="O157:O158"/>
+    <mergeCell ref="O159:O160"/>
+    <mergeCell ref="O161:O162"/>
+    <mergeCell ref="O163:O164"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="O167:O168"/>
+    <mergeCell ref="O169:O170"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="O173:O174"/>
+    <mergeCell ref="O175:O176"/>
+    <mergeCell ref="O177:O178"/>
+    <mergeCell ref="O179:O180"/>
+    <mergeCell ref="O181:O182"/>
+    <mergeCell ref="O183:O184"/>
+    <mergeCell ref="O185:O186"/>
+    <mergeCell ref="O187:O188"/>
+    <mergeCell ref="O189:O190"/>
+    <mergeCell ref="O191:O192"/>
+    <mergeCell ref="O193:O194"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="P7:P8"/>
@@ -1945,6 +6132,83 @@
     <mergeCell ref="P35:P36"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="P71:P72"/>
+    <mergeCell ref="P73:P74"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="P77:P78"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="P83:P84"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="P87:P88"/>
+    <mergeCell ref="P89:P90"/>
+    <mergeCell ref="P91:P92"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="P99:P100"/>
+    <mergeCell ref="P101:P102"/>
+    <mergeCell ref="P103:P104"/>
+    <mergeCell ref="P105:P106"/>
+    <mergeCell ref="P107:P108"/>
+    <mergeCell ref="P109:P110"/>
+    <mergeCell ref="P111:P112"/>
+    <mergeCell ref="P113:P114"/>
+    <mergeCell ref="P115:P116"/>
+    <mergeCell ref="P117:P118"/>
+    <mergeCell ref="P119:P120"/>
+    <mergeCell ref="P121:P122"/>
+    <mergeCell ref="P123:P124"/>
+    <mergeCell ref="P125:P126"/>
+    <mergeCell ref="P127:P128"/>
+    <mergeCell ref="P129:P130"/>
+    <mergeCell ref="P131:P132"/>
+    <mergeCell ref="P133:P134"/>
+    <mergeCell ref="P135:P136"/>
+    <mergeCell ref="P137:P138"/>
+    <mergeCell ref="P139:P140"/>
+    <mergeCell ref="P141:P142"/>
+    <mergeCell ref="P143:P144"/>
+    <mergeCell ref="P145:P146"/>
+    <mergeCell ref="P147:P148"/>
+    <mergeCell ref="P149:P150"/>
+    <mergeCell ref="P151:P152"/>
+    <mergeCell ref="P153:P154"/>
+    <mergeCell ref="P155:P156"/>
+    <mergeCell ref="P157:P158"/>
+    <mergeCell ref="P159:P160"/>
+    <mergeCell ref="P161:P162"/>
+    <mergeCell ref="P163:P164"/>
+    <mergeCell ref="P165:P166"/>
+    <mergeCell ref="P167:P168"/>
+    <mergeCell ref="P169:P170"/>
+    <mergeCell ref="P171:P172"/>
+    <mergeCell ref="P173:P174"/>
+    <mergeCell ref="P175:P176"/>
+    <mergeCell ref="P177:P178"/>
+    <mergeCell ref="P179:P180"/>
+    <mergeCell ref="P181:P182"/>
+    <mergeCell ref="P183:P184"/>
+    <mergeCell ref="P185:P186"/>
+    <mergeCell ref="P187:P188"/>
+    <mergeCell ref="P189:P190"/>
+    <mergeCell ref="P191:P192"/>
+    <mergeCell ref="P193:P194"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="Q7:Q8"/>
@@ -1964,27 +6228,87 @@
     <mergeCell ref="Q35:Q36"/>
     <mergeCell ref="Q37:Q38"/>
     <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="Q99:Q100"/>
+    <mergeCell ref="Q101:Q102"/>
+    <mergeCell ref="Q103:Q104"/>
+    <mergeCell ref="Q105:Q106"/>
+    <mergeCell ref="Q107:Q108"/>
+    <mergeCell ref="Q109:Q110"/>
+    <mergeCell ref="Q111:Q112"/>
+    <mergeCell ref="Q113:Q114"/>
+    <mergeCell ref="Q115:Q116"/>
+    <mergeCell ref="Q117:Q118"/>
+    <mergeCell ref="Q119:Q120"/>
+    <mergeCell ref="Q121:Q122"/>
+    <mergeCell ref="Q123:Q124"/>
+    <mergeCell ref="Q125:Q126"/>
+    <mergeCell ref="Q127:Q128"/>
+    <mergeCell ref="Q129:Q130"/>
+    <mergeCell ref="Q131:Q132"/>
+    <mergeCell ref="Q133:Q134"/>
+    <mergeCell ref="Q135:Q136"/>
+    <mergeCell ref="Q137:Q138"/>
+    <mergeCell ref="Q139:Q140"/>
+    <mergeCell ref="Q141:Q142"/>
+    <mergeCell ref="Q143:Q144"/>
+    <mergeCell ref="Q145:Q146"/>
+    <mergeCell ref="Q147:Q148"/>
+    <mergeCell ref="Q149:Q150"/>
+    <mergeCell ref="Q151:Q152"/>
+    <mergeCell ref="Q153:Q154"/>
+    <mergeCell ref="Q155:Q156"/>
+    <mergeCell ref="Q157:Q158"/>
+    <mergeCell ref="Q159:Q160"/>
+    <mergeCell ref="Q161:Q162"/>
+    <mergeCell ref="Q163:Q164"/>
+    <mergeCell ref="Q165:Q166"/>
+    <mergeCell ref="Q167:Q168"/>
+    <mergeCell ref="Q169:Q170"/>
+    <mergeCell ref="Q171:Q172"/>
+    <mergeCell ref="Q173:Q174"/>
+    <mergeCell ref="Q175:Q176"/>
+    <mergeCell ref="Q177:Q178"/>
+    <mergeCell ref="Q179:Q180"/>
+    <mergeCell ref="Q181:Q182"/>
+    <mergeCell ref="Q183:Q184"/>
+    <mergeCell ref="Q185:Q186"/>
+    <mergeCell ref="Q187:Q188"/>
+    <mergeCell ref="Q189:Q190"/>
+    <mergeCell ref="Q191:Q192"/>
+    <mergeCell ref="Q193:Q194"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:Q2"/>
     <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A39:B40"/>
     <mergeCell ref="C5:I6"/>
     <mergeCell ref="C7:I8"/>
     <mergeCell ref="C9:I10"/>
@@ -2002,7 +6326,178 @@
     <mergeCell ref="C33:I34"/>
     <mergeCell ref="C35:I36"/>
     <mergeCell ref="C37:I38"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A33:B34"/>
     <mergeCell ref="C39:I40"/>
+    <mergeCell ref="C47:I48"/>
+    <mergeCell ref="C55:I56"/>
+    <mergeCell ref="C71:I72"/>
+    <mergeCell ref="C87:I88"/>
+    <mergeCell ref="C103:I104"/>
+    <mergeCell ref="C41:I42"/>
+    <mergeCell ref="C49:I50"/>
+    <mergeCell ref="C65:I66"/>
+    <mergeCell ref="C73:I74"/>
+    <mergeCell ref="C81:I82"/>
+    <mergeCell ref="C89:I90"/>
+    <mergeCell ref="C97:I98"/>
+    <mergeCell ref="C105:I106"/>
+    <mergeCell ref="C43:I44"/>
+    <mergeCell ref="C51:I52"/>
+    <mergeCell ref="C59:I60"/>
+    <mergeCell ref="C67:I68"/>
+    <mergeCell ref="C75:I76"/>
+    <mergeCell ref="C83:I84"/>
+    <mergeCell ref="C91:I92"/>
+    <mergeCell ref="C45:I46"/>
+    <mergeCell ref="C53:I54"/>
+    <mergeCell ref="C61:I62"/>
+    <mergeCell ref="C69:I70"/>
+    <mergeCell ref="C77:I78"/>
+    <mergeCell ref="C85:I86"/>
+    <mergeCell ref="C93:I94"/>
+    <mergeCell ref="C101:I102"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="A49:B50"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="A57:B58"/>
+    <mergeCell ref="C57:I58"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="A61:B62"/>
+    <mergeCell ref="C63:I64"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A65:B66"/>
+    <mergeCell ref="A67:B68"/>
+    <mergeCell ref="A69:B70"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C79:I80"/>
+    <mergeCell ref="A81:B82"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="C95:I96"/>
+    <mergeCell ref="A95:B96"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="A101:B102"/>
+    <mergeCell ref="A103:B104"/>
+    <mergeCell ref="C99:I100"/>
+    <mergeCell ref="A111:B112"/>
+    <mergeCell ref="A113:B114"/>
+    <mergeCell ref="A115:B116"/>
+    <mergeCell ref="A117:B118"/>
+    <mergeCell ref="A119:B120"/>
+    <mergeCell ref="A121:B122"/>
+    <mergeCell ref="A123:B124"/>
+    <mergeCell ref="A125:B126"/>
+    <mergeCell ref="A127:B128"/>
+    <mergeCell ref="A129:B130"/>
+    <mergeCell ref="A131:B132"/>
+    <mergeCell ref="A133:B134"/>
+    <mergeCell ref="A135:B136"/>
+    <mergeCell ref="A137:B138"/>
+    <mergeCell ref="A139:B140"/>
+    <mergeCell ref="A141:B142"/>
+    <mergeCell ref="A143:B144"/>
+    <mergeCell ref="A145:B146"/>
+    <mergeCell ref="A147:B148"/>
+    <mergeCell ref="A149:B150"/>
+    <mergeCell ref="A151:B152"/>
+    <mergeCell ref="A153:B154"/>
+    <mergeCell ref="A155:B156"/>
+    <mergeCell ref="A157:B158"/>
+    <mergeCell ref="A159:B160"/>
+    <mergeCell ref="A161:B162"/>
+    <mergeCell ref="A163:B164"/>
+    <mergeCell ref="A165:B166"/>
+    <mergeCell ref="A167:B168"/>
+    <mergeCell ref="A169:B170"/>
+    <mergeCell ref="A171:B172"/>
+    <mergeCell ref="A173:B174"/>
+    <mergeCell ref="A175:B176"/>
+    <mergeCell ref="A177:B178"/>
+    <mergeCell ref="A179:B180"/>
+    <mergeCell ref="A181:B182"/>
+    <mergeCell ref="A183:B184"/>
+    <mergeCell ref="A185:B186"/>
+    <mergeCell ref="A187:B188"/>
+    <mergeCell ref="A189:B190"/>
+    <mergeCell ref="A191:B192"/>
+    <mergeCell ref="A193:B194"/>
+    <mergeCell ref="C107:I108"/>
+    <mergeCell ref="C109:I110"/>
+    <mergeCell ref="C111:I112"/>
+    <mergeCell ref="C113:I114"/>
+    <mergeCell ref="C115:I116"/>
+    <mergeCell ref="C117:I118"/>
+    <mergeCell ref="C119:I120"/>
+    <mergeCell ref="C121:I122"/>
+    <mergeCell ref="C123:I124"/>
+    <mergeCell ref="C125:I126"/>
+    <mergeCell ref="C127:I128"/>
+    <mergeCell ref="C129:I130"/>
+    <mergeCell ref="C131:I132"/>
+    <mergeCell ref="C133:I134"/>
+    <mergeCell ref="C135:I136"/>
+    <mergeCell ref="C137:I138"/>
+    <mergeCell ref="C139:I140"/>
+    <mergeCell ref="C141:I142"/>
+    <mergeCell ref="C143:I144"/>
+    <mergeCell ref="C145:I146"/>
+    <mergeCell ref="C147:I148"/>
+    <mergeCell ref="C149:I150"/>
+    <mergeCell ref="C151:I152"/>
+    <mergeCell ref="C153:I154"/>
+    <mergeCell ref="C155:I156"/>
+    <mergeCell ref="C157:I158"/>
+    <mergeCell ref="C159:I160"/>
+    <mergeCell ref="C161:I162"/>
+    <mergeCell ref="C163:I164"/>
+    <mergeCell ref="C165:I166"/>
+    <mergeCell ref="C167:I168"/>
+    <mergeCell ref="C169:I170"/>
+    <mergeCell ref="C171:I172"/>
+    <mergeCell ref="C173:I174"/>
+    <mergeCell ref="C175:I176"/>
+    <mergeCell ref="C177:I178"/>
+    <mergeCell ref="C179:I180"/>
+    <mergeCell ref="C181:I182"/>
+    <mergeCell ref="C183:I184"/>
+    <mergeCell ref="C185:I186"/>
+    <mergeCell ref="C187:I188"/>
+    <mergeCell ref="C189:I190"/>
+    <mergeCell ref="C191:I192"/>
+    <mergeCell ref="C193:I194"/>
+    <mergeCell ref="A105:B106"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="A109:B110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
   <si>
     <t>学习日期</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>数据结构1、2</t>
+  </si>
+  <si>
+    <t>三重积分</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:Q194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109:N110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3940,9 +3943,13 @@
       <c r="Q110" s="1"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="2"/>
+      <c r="A111" s="2">
+        <v>45574</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -6409,7 +6416,6 @@
     <mergeCell ref="A101:B102"/>
     <mergeCell ref="A103:B104"/>
     <mergeCell ref="C99:I100"/>
-    <mergeCell ref="A111:B112"/>
     <mergeCell ref="A113:B114"/>
     <mergeCell ref="A115:B116"/>
     <mergeCell ref="A117:B118"/>
@@ -6498,6 +6504,7 @@
     <mergeCell ref="A105:B106"/>
     <mergeCell ref="A107:B108"/>
     <mergeCell ref="A109:B110"/>
+    <mergeCell ref="A111:B112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
   <si>
     <t>学习日期</t>
   </si>
@@ -157,7 +157,7 @@
     <t>局域网3.6.2</t>
   </si>
   <si>
-    <t>数据链路层设备3.8 网络层4.1~4.2</t>
+    <t xml:space="preserve">数据链路层设备3.8 </t>
   </si>
   <si>
     <t>概率论 多维随机变量函数的分布</t>
@@ -175,22 +175,10 @@
     <t>积分等式与积分不等式</t>
   </si>
   <si>
-    <t>网络层4.3.1~4.3.2</t>
-  </si>
-  <si>
-    <t>网络层4.4~4.5</t>
-  </si>
-  <si>
     <t>数据链路层3.6.4</t>
   </si>
   <si>
-    <t>广域网 网络层4.3.3</t>
-  </si>
-  <si>
-    <t>网络层4.6~4.7</t>
-  </si>
-  <si>
-    <t>网络层4.3.4与4.8</t>
+    <t xml:space="preserve">广域网 </t>
   </si>
   <si>
     <t>多元函数微分学</t>
@@ -227,6 +215,12 @@
   </si>
   <si>
     <t>三重积分</t>
+  </si>
+  <si>
+    <t>栈、队列与数组</t>
+  </si>
+  <si>
+    <t>一型曲线积分、一型曲面积分</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:Q186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P12"/>
+      <selection activeCell="N13" sqref="N13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,8 +1304,8 @@
       <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1">
-        <v>14</v>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1362,8 +1356,8 @@
       <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1">
-        <v>14</v>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1414,8 +1408,8 @@
       <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="1">
-        <v>14</v>
+      <c r="N9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1467,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1519,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="N13" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1571,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="N15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1623,7 +1617,7 @@
         <v>12</v>
       </c>
       <c r="N17" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1675,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1727,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="N21" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1779,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="N23" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1831,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="N25" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1883,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="N27" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1935,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1987,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2039,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2091,7 +2085,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2143,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2195,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2247,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2299,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2351,7 +2345,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2403,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2455,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="N49" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2507,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="N51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2559,7 +2553,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2610,7 +2604,9 @@
       <c r="M55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -2660,7 +2656,9 @@
       <c r="M57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N57" s="1"/>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -2707,8 +2705,8 @@
       <c r="L59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="1">
-        <v>6</v>
+      <c r="M59" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2757,8 +2755,8 @@
       <c r="L61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="1">
-        <v>6</v>
+      <c r="M61" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2808,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="M63" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -2858,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="M65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -2908,7 +2906,7 @@
         <v>12</v>
       </c>
       <c r="M67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -2958,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="M69" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -3008,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="M71" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -3058,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="M73" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -3108,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="M75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -3158,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="M77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -3186,7 +3184,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
@@ -3236,7 +3234,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2">
-        <v>45566</v>
+        <v>45568</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
@@ -3257,9 +3255,7 @@
       <c r="L81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M81" s="1">
-        <v>1</v>
-      </c>
+      <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -3286,7 +3282,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
@@ -3304,8 +3300,8 @@
       <c r="K83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>12</v>
+      <c r="L83" s="1">
+        <v>3</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -3334,7 +3330,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
@@ -3352,8 +3348,8 @@
       <c r="K85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="1" t="s">
-        <v>12</v>
+      <c r="L85" s="1">
+        <v>3</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -3382,7 +3378,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2">
-        <v>45568</v>
+        <v>45570</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
@@ -3401,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="L87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -3430,7 +3426,7 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="2">
-        <v>45568</v>
+        <v>45570</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
@@ -3449,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="L89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -3478,7 +3474,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2">
-        <v>45569</v>
+        <v>45571</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
@@ -3497,7 +3493,7 @@
         <v>12</v>
       </c>
       <c r="L91" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -3526,7 +3522,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2">
-        <v>45569</v>
+        <v>45571</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
@@ -3545,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="L93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -3574,7 +3570,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="2">
-        <v>45570</v>
+        <v>45571</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
@@ -3622,7 +3618,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="2">
-        <v>45570</v>
+        <v>45572</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
@@ -3640,9 +3636,7 @@
       <c r="K97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L97" s="1">
-        <v>1</v>
-      </c>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -3670,7 +3664,7 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="2">
-        <v>45571</v>
+        <v>45572</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
@@ -3716,7 +3710,7 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="2">
-        <v>45571</v>
+        <v>45573</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
@@ -3731,8 +3725,8 @@
       <c r="J101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>12</v>
+      <c r="K101" s="1">
+        <v>1</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -3762,7 +3756,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="2">
-        <v>45571</v>
+        <v>45574</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
@@ -3777,9 +3771,7 @@
       <c r="J103" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -3808,7 +3800,7 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="2">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
@@ -3820,12 +3812,8 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K105" s="1">
-        <v>1</v>
-      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
@@ -3854,7 +3842,7 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="2">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
@@ -3866,12 +3854,8 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K107" s="1">
-        <v>1</v>
-      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
@@ -3899,22 +3883,16 @@
       <c r="Q108" s="1"/>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="2">
-        <v>45573</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -3943,13 +3921,9 @@
       <c r="Q110" s="1"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="2">
-        <v>45574</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -5390,160 +5364,8 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17">
-      <c r="A187" s="2"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="1:17">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="1:17">
-      <c r="A189" s="2"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="1:17">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="1:17">
-      <c r="A191" s="2"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="1:17">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="1:17">
-      <c r="A193" s="2"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="1:17">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="961">
+  <mergeCells count="921">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
@@ -5636,10 +5458,6 @@
     <mergeCell ref="J181:J182"/>
     <mergeCell ref="J183:J184"/>
     <mergeCell ref="J185:J186"/>
-    <mergeCell ref="J187:J188"/>
-    <mergeCell ref="J189:J190"/>
-    <mergeCell ref="J191:J192"/>
-    <mergeCell ref="J193:J194"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -5732,10 +5550,6 @@
     <mergeCell ref="K181:K182"/>
     <mergeCell ref="K183:K184"/>
     <mergeCell ref="K185:K186"/>
-    <mergeCell ref="K187:K188"/>
-    <mergeCell ref="K189:K190"/>
-    <mergeCell ref="K191:K192"/>
-    <mergeCell ref="K193:K194"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
@@ -5828,10 +5642,6 @@
     <mergeCell ref="L181:L182"/>
     <mergeCell ref="L183:L184"/>
     <mergeCell ref="L185:L186"/>
-    <mergeCell ref="L187:L188"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="L191:L192"/>
-    <mergeCell ref="L193:L194"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -5924,10 +5734,6 @@
     <mergeCell ref="M181:M182"/>
     <mergeCell ref="M183:M184"/>
     <mergeCell ref="M185:M186"/>
-    <mergeCell ref="M187:M188"/>
-    <mergeCell ref="M189:M190"/>
-    <mergeCell ref="M191:M192"/>
-    <mergeCell ref="M193:M194"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
@@ -6020,10 +5826,6 @@
     <mergeCell ref="N181:N182"/>
     <mergeCell ref="N183:N184"/>
     <mergeCell ref="N185:N186"/>
-    <mergeCell ref="N187:N188"/>
-    <mergeCell ref="N189:N190"/>
-    <mergeCell ref="N191:N192"/>
-    <mergeCell ref="N193:N194"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O8"/>
@@ -6116,10 +5918,6 @@
     <mergeCell ref="O181:O182"/>
     <mergeCell ref="O183:O184"/>
     <mergeCell ref="O185:O186"/>
-    <mergeCell ref="O187:O188"/>
-    <mergeCell ref="O189:O190"/>
-    <mergeCell ref="O191:O192"/>
-    <mergeCell ref="O193:O194"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="P7:P8"/>
@@ -6212,10 +6010,6 @@
     <mergeCell ref="P181:P182"/>
     <mergeCell ref="P183:P184"/>
     <mergeCell ref="P185:P186"/>
-    <mergeCell ref="P187:P188"/>
-    <mergeCell ref="P189:P190"/>
-    <mergeCell ref="P191:P192"/>
-    <mergeCell ref="P193:P194"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="Q7:Q8"/>
@@ -6308,10 +6102,6 @@
     <mergeCell ref="Q181:Q182"/>
     <mergeCell ref="Q183:Q184"/>
     <mergeCell ref="Q185:Q186"/>
-    <mergeCell ref="Q187:Q188"/>
-    <mergeCell ref="Q189:Q190"/>
-    <mergeCell ref="Q191:Q192"/>
-    <mergeCell ref="Q193:Q194"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:Q2"/>
@@ -6453,10 +6243,6 @@
     <mergeCell ref="A181:B182"/>
     <mergeCell ref="A183:B184"/>
     <mergeCell ref="A185:B186"/>
-    <mergeCell ref="A187:B188"/>
-    <mergeCell ref="A189:B190"/>
-    <mergeCell ref="A191:B192"/>
-    <mergeCell ref="A193:B194"/>
     <mergeCell ref="C107:I108"/>
     <mergeCell ref="C109:I110"/>
     <mergeCell ref="C111:I112"/>
@@ -6497,14 +6283,10 @@
     <mergeCell ref="C181:I182"/>
     <mergeCell ref="C183:I184"/>
     <mergeCell ref="C185:I186"/>
-    <mergeCell ref="C187:I188"/>
-    <mergeCell ref="C189:I190"/>
-    <mergeCell ref="C191:I192"/>
-    <mergeCell ref="C193:I194"/>
+    <mergeCell ref="A109:B110"/>
+    <mergeCell ref="A111:B112"/>
     <mergeCell ref="A105:B106"/>
     <mergeCell ref="A107:B108"/>
-    <mergeCell ref="A109:B110"/>
-    <mergeCell ref="A111:B112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>学习日期</t>
   </si>
@@ -82,22 +82,16 @@
     <t>矩阵的秩</t>
   </si>
   <si>
-    <t>存储系统3.1~3.3</t>
-  </si>
-  <si>
-    <t>存储系统3.4~3.5</t>
+    <t>存储系统</t>
   </si>
   <si>
     <t>一元函数微分学的几何应用</t>
   </si>
   <si>
-    <t>指令系统4.1~4.2</t>
+    <t>指令系统</t>
   </si>
   <si>
-    <t>指令系统4.3~4.4</t>
-  </si>
-  <si>
-    <t>中央处理器5.1~5.2</t>
+    <t>中央处理器</t>
   </si>
   <si>
     <t>向量组</t>
@@ -106,22 +100,13 @@
     <t>特征值与特征向量</t>
   </si>
   <si>
-    <t>CPU5.3</t>
-  </si>
-  <si>
-    <t>CPU5.4</t>
-  </si>
-  <si>
     <t>中值定理</t>
-  </si>
-  <si>
-    <t>CPU5.6~5.7</t>
   </si>
   <si>
     <t>总线</t>
   </si>
   <si>
-    <t>I/O 7.1~7.2</t>
+    <t>IO系统</t>
   </si>
   <si>
     <t>相似理论</t>
@@ -139,34 +124,16 @@
     <t>二次型</t>
   </si>
   <si>
-    <t>数据链路层3.1~3.2</t>
+    <t>数据链路层</t>
   </si>
   <si>
     <t>概率论 多维随机变量及其分布</t>
   </si>
   <si>
-    <t>数据链路层3.3~3.5</t>
-  </si>
-  <si>
     <t>一元函数积分学的计算</t>
   </si>
   <si>
-    <t>局域网3.6.1</t>
-  </si>
-  <si>
-    <t>局域网3.6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据链路层设备3.8 </t>
-  </si>
-  <si>
     <t>概率论 多维随机变量函数的分布</t>
-  </si>
-  <si>
-    <t>7.3 IO方式</t>
-  </si>
-  <si>
-    <t>局域网3.6.3</t>
   </si>
   <si>
     <t>一元函数积分学的几何应用</t>
@@ -175,37 +142,22 @@
     <t>积分等式与积分不等式</t>
   </si>
   <si>
-    <t>数据链路层3.6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广域网 </t>
-  </si>
-  <si>
     <t>多元函数微分学</t>
   </si>
   <si>
-    <t>传输层5.1</t>
+    <t>传输层</t>
   </si>
   <si>
     <t>二重积分</t>
   </si>
   <si>
-    <t>传输层5.2</t>
-  </si>
-  <si>
     <t>微分方程</t>
   </si>
   <si>
-    <t>传输层5.3</t>
-  </si>
-  <si>
-    <t>应用层6.1~6.2</t>
+    <t>应用层</t>
   </si>
   <si>
     <t>多元函数积分学的预备知识</t>
-  </si>
-  <si>
-    <t>应用层6.3~6.5</t>
   </si>
   <si>
     <t>无穷级数</t>
@@ -221,6 +173,9 @@
   </si>
   <si>
     <t>一型曲线积分、一型曲面积分</t>
+  </si>
+  <si>
+    <t>串</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:N14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73:K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1307,7 +1262,9 @@
       <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -1359,7 +1316,9 @@
       <c r="N7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1411,7 +1370,9 @@
       <c r="N9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
@@ -1460,8 +1421,8 @@
       <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="1">
-        <v>14</v>
+      <c r="N11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1512,8 +1473,8 @@
       <c r="M13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="1">
-        <v>14</v>
+      <c r="N13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1540,7 +1501,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>45548</v>
+        <v>45549</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -1592,7 +1553,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>45549</v>
+        <v>45550</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1644,7 +1605,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>45550</v>
+        <v>45551</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1696,7 +1657,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>45550</v>
+        <v>45551</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1748,7 +1709,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
@@ -1800,7 +1761,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -1852,7 +1813,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -1904,7 +1865,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>45552</v>
+        <v>45554</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -1929,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1956,7 +1917,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
@@ -1981,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2008,7 +1969,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -2033,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2060,7 +2021,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
@@ -2085,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2112,7 +2073,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>45553</v>
+        <v>45557</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -2137,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2164,7 +2125,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
@@ -2189,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2216,7 +2177,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>45555</v>
+        <v>45559</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -2241,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2268,7 +2229,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>45555</v>
+        <v>45559</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
@@ -2293,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2320,7 +2281,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>45556</v>
+        <v>45560</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -2345,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2372,7 +2333,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>45557</v>
+        <v>45561</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
@@ -2397,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2424,7 +2385,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>45558</v>
+        <v>45563</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -2445,12 +2406,10 @@
       <c r="L49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="1">
-        <v>4</v>
-      </c>
+      <c r="M49" s="1">
+        <v>6</v>
+      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -2476,7 +2435,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>45559</v>
+        <v>45564</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -2497,12 +2456,10 @@
       <c r="L51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="1">
-        <v>3</v>
-      </c>
+      <c r="M51" s="1">
+        <v>5</v>
+      </c>
+      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -2528,7 +2485,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>45559</v>
+        <v>45565</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
@@ -2549,12 +2506,10 @@
       <c r="L53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N53" s="1">
-        <v>2</v>
-      </c>
+      <c r="M53" s="1">
+        <v>4</v>
+      </c>
+      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -2580,7 +2535,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>45560</v>
+        <v>45568</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
@@ -2601,12 +2556,10 @@
       <c r="L55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="M55" s="1">
         <v>1</v>
       </c>
+      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -2632,7 +2585,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>45560</v>
+        <v>45569</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
@@ -2653,12 +2606,8 @@
       <c r="L57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -2684,7 +2633,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>45561</v>
+        <v>45569</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -2705,9 +2654,7 @@
       <c r="L59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -2734,7 +2681,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>45561</v>
+        <v>45570</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
@@ -2752,12 +2699,10 @@
       <c r="K61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="L61" s="1">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -2784,7 +2729,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="2">
-        <v>45562</v>
+        <v>45571</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
@@ -2802,12 +2747,10 @@
       <c r="K63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="1">
-        <v>6</v>
-      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -2834,7 +2777,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2">
-        <v>45562</v>
+        <v>45571</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
@@ -2852,12 +2795,10 @@
       <c r="K65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="1">
-        <v>6</v>
-      </c>
+      <c r="L65" s="1">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -2884,7 +2825,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2">
-        <v>45563</v>
+        <v>45572</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
@@ -2902,12 +2843,10 @@
       <c r="K67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M67" s="1">
-        <v>5</v>
-      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -2934,7 +2873,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2">
-        <v>45563</v>
+        <v>45573</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
@@ -2952,12 +2891,8 @@
       <c r="K69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M69" s="1">
-        <v>5</v>
-      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -2984,7 +2919,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2">
-        <v>45563</v>
+        <v>45574</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
@@ -2999,15 +2934,11 @@
       <c r="J71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M71" s="1">
-        <v>5</v>
-      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3034,7 +2965,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2">
-        <v>45564</v>
+        <v>45575</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
@@ -3049,15 +2980,9 @@
       <c r="J73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" s="1">
-        <v>4</v>
-      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3084,7 +3009,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2">
-        <v>45565</v>
+        <v>45575</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
@@ -3099,15 +3024,9 @@
       <c r="J75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M75" s="1">
-        <v>3</v>
-      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -3134,7 +3053,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2">
-        <v>45566</v>
+        <v>45576</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
@@ -3146,18 +3065,10 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" s="1">
-        <v>2</v>
-      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -3183,31 +3094,19 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="2">
-        <v>45567</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M79" s="1">
-        <v>1</v>
-      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -3233,28 +3132,18 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="2">
-        <v>45568</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -3281,28 +3170,18 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="2">
-        <v>45569</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L83" s="1">
-        <v>3</v>
-      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -3329,28 +3208,18 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="2">
-        <v>45569</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L85" s="1">
-        <v>3</v>
-      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -3377,28 +3246,18 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="2">
-        <v>45570</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L87" s="1">
-        <v>2</v>
-      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -3425,28 +3284,18 @@
       <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="2">
-        <v>45570</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L89" s="1">
-        <v>2</v>
-      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -3473,28 +3322,18 @@
       <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="2">
-        <v>45571</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L91" s="1">
-        <v>1</v>
-      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -3521,28 +3360,18 @@
       <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="2">
-        <v>45571</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L93" s="1">
-        <v>1</v>
-      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -3569,28 +3398,18 @@
       <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="2">
-        <v>45571</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" s="1">
-        <v>1</v>
-      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -3617,25 +3436,17 @@
       <c r="Q96" s="1"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="2">
-        <v>45572</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -3663,25 +3474,17 @@
       <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="2">
-        <v>45572</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -3709,25 +3512,17 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="2">
-        <v>45573</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K101" s="1">
-        <v>1</v>
-      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -3755,22 +3550,16 @@
       <c r="Q102" s="1"/>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="2">
-        <v>45574</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
@@ -3799,13 +3588,9 @@
       <c r="Q104" s="1"/>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="2">
-        <v>45575</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3841,13 +3626,9 @@
       <c r="Q106" s="1"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="2">
-        <v>45575</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
@@ -4756,616 +4537,8 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17">
-      <c r="A155" s="2"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="2"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="1:17">
-      <c r="A159" s="2"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="1:17">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="A161" s="2"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="1:17">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="A163" s="2"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="1:17">
-      <c r="A165" s="2"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="1:17">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="1:17">
-      <c r="A167" s="2"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="1:17">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="1:17">
-      <c r="A169" s="2"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="1:17">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="1:17">
-      <c r="A171" s="2"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="1:17">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="1:17">
-      <c r="A173" s="2"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="1:17">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="1:17">
-      <c r="A175" s="2"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="1:17">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="1:17">
-      <c r="A177" s="2"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="1:17">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="1:17">
-      <c r="A179" s="2"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="1:17">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="1:17">
-      <c r="A181" s="2"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="1:17">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="1:17">
-      <c r="A183" s="2"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="1:17">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="1:17">
-      <c r="A185" s="2"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="1:17">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="921">
+  <mergeCells count="761">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
@@ -5442,22 +4615,6 @@
     <mergeCell ref="J149:J150"/>
     <mergeCell ref="J151:J152"/>
     <mergeCell ref="J153:J154"/>
-    <mergeCell ref="J155:J156"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="J165:J166"/>
-    <mergeCell ref="J167:J168"/>
-    <mergeCell ref="J169:J170"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="J175:J176"/>
-    <mergeCell ref="J177:J178"/>
-    <mergeCell ref="J179:J180"/>
-    <mergeCell ref="J181:J182"/>
-    <mergeCell ref="J183:J184"/>
-    <mergeCell ref="J185:J186"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -5534,22 +4691,6 @@
     <mergeCell ref="K149:K150"/>
     <mergeCell ref="K151:K152"/>
     <mergeCell ref="K153:K154"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="K171:K172"/>
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="K175:K176"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="K179:K180"/>
-    <mergeCell ref="K181:K182"/>
-    <mergeCell ref="K183:K184"/>
-    <mergeCell ref="K185:K186"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
@@ -5626,22 +4767,6 @@
     <mergeCell ref="L149:L150"/>
     <mergeCell ref="L151:L152"/>
     <mergeCell ref="L153:L154"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="L159:L160"/>
-    <mergeCell ref="L161:L162"/>
-    <mergeCell ref="L163:L164"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="L167:L168"/>
-    <mergeCell ref="L169:L170"/>
-    <mergeCell ref="L171:L172"/>
-    <mergeCell ref="L173:L174"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="L177:L178"/>
-    <mergeCell ref="L179:L180"/>
-    <mergeCell ref="L181:L182"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="L185:L186"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -5718,22 +4843,6 @@
     <mergeCell ref="M149:M150"/>
     <mergeCell ref="M151:M152"/>
     <mergeCell ref="M153:M154"/>
-    <mergeCell ref="M155:M156"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="M159:M160"/>
-    <mergeCell ref="M161:M162"/>
-    <mergeCell ref="M163:M164"/>
-    <mergeCell ref="M165:M166"/>
-    <mergeCell ref="M167:M168"/>
-    <mergeCell ref="M169:M170"/>
-    <mergeCell ref="M171:M172"/>
-    <mergeCell ref="M173:M174"/>
-    <mergeCell ref="M175:M176"/>
-    <mergeCell ref="M177:M178"/>
-    <mergeCell ref="M179:M180"/>
-    <mergeCell ref="M181:M182"/>
-    <mergeCell ref="M183:M184"/>
-    <mergeCell ref="M185:M186"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
@@ -5810,22 +4919,6 @@
     <mergeCell ref="N149:N150"/>
     <mergeCell ref="N151:N152"/>
     <mergeCell ref="N153:N154"/>
-    <mergeCell ref="N155:N156"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="N159:N160"/>
-    <mergeCell ref="N161:N162"/>
-    <mergeCell ref="N163:N164"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="N167:N168"/>
-    <mergeCell ref="N169:N170"/>
-    <mergeCell ref="N171:N172"/>
-    <mergeCell ref="N173:N174"/>
-    <mergeCell ref="N175:N176"/>
-    <mergeCell ref="N177:N178"/>
-    <mergeCell ref="N179:N180"/>
-    <mergeCell ref="N181:N182"/>
-    <mergeCell ref="N183:N184"/>
-    <mergeCell ref="N185:N186"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O8"/>
@@ -5902,22 +4995,6 @@
     <mergeCell ref="O149:O150"/>
     <mergeCell ref="O151:O152"/>
     <mergeCell ref="O153:O154"/>
-    <mergeCell ref="O155:O156"/>
-    <mergeCell ref="O157:O158"/>
-    <mergeCell ref="O159:O160"/>
-    <mergeCell ref="O161:O162"/>
-    <mergeCell ref="O163:O164"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="O167:O168"/>
-    <mergeCell ref="O169:O170"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="O173:O174"/>
-    <mergeCell ref="O175:O176"/>
-    <mergeCell ref="O177:O178"/>
-    <mergeCell ref="O179:O180"/>
-    <mergeCell ref="O181:O182"/>
-    <mergeCell ref="O183:O184"/>
-    <mergeCell ref="O185:O186"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="P7:P8"/>
@@ -5994,22 +5071,6 @@
     <mergeCell ref="P149:P150"/>
     <mergeCell ref="P151:P152"/>
     <mergeCell ref="P153:P154"/>
-    <mergeCell ref="P155:P156"/>
-    <mergeCell ref="P157:P158"/>
-    <mergeCell ref="P159:P160"/>
-    <mergeCell ref="P161:P162"/>
-    <mergeCell ref="P163:P164"/>
-    <mergeCell ref="P165:P166"/>
-    <mergeCell ref="P167:P168"/>
-    <mergeCell ref="P169:P170"/>
-    <mergeCell ref="P171:P172"/>
-    <mergeCell ref="P173:P174"/>
-    <mergeCell ref="P175:P176"/>
-    <mergeCell ref="P177:P178"/>
-    <mergeCell ref="P179:P180"/>
-    <mergeCell ref="P181:P182"/>
-    <mergeCell ref="P183:P184"/>
-    <mergeCell ref="P185:P186"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="Q7:Q8"/>
@@ -6086,22 +5147,6 @@
     <mergeCell ref="Q149:Q150"/>
     <mergeCell ref="Q151:Q152"/>
     <mergeCell ref="Q153:Q154"/>
-    <mergeCell ref="Q155:Q156"/>
-    <mergeCell ref="Q157:Q158"/>
-    <mergeCell ref="Q159:Q160"/>
-    <mergeCell ref="Q161:Q162"/>
-    <mergeCell ref="Q163:Q164"/>
-    <mergeCell ref="Q165:Q166"/>
-    <mergeCell ref="Q167:Q168"/>
-    <mergeCell ref="Q169:Q170"/>
-    <mergeCell ref="Q171:Q172"/>
-    <mergeCell ref="Q173:Q174"/>
-    <mergeCell ref="Q175:Q176"/>
-    <mergeCell ref="Q177:Q178"/>
-    <mergeCell ref="Q179:Q180"/>
-    <mergeCell ref="Q181:Q182"/>
-    <mergeCell ref="Q183:Q184"/>
-    <mergeCell ref="Q185:Q186"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:Q2"/>
@@ -6189,7 +5234,6 @@
     <mergeCell ref="A71:B72"/>
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
-    <mergeCell ref="A77:B78"/>
     <mergeCell ref="A79:B80"/>
     <mergeCell ref="C79:I80"/>
     <mergeCell ref="A81:B82"/>
@@ -6227,22 +5271,6 @@
     <mergeCell ref="A149:B150"/>
     <mergeCell ref="A151:B152"/>
     <mergeCell ref="A153:B154"/>
-    <mergeCell ref="A155:B156"/>
-    <mergeCell ref="A157:B158"/>
-    <mergeCell ref="A159:B160"/>
-    <mergeCell ref="A161:B162"/>
-    <mergeCell ref="A163:B164"/>
-    <mergeCell ref="A165:B166"/>
-    <mergeCell ref="A167:B168"/>
-    <mergeCell ref="A169:B170"/>
-    <mergeCell ref="A171:B172"/>
-    <mergeCell ref="A173:B174"/>
-    <mergeCell ref="A175:B176"/>
-    <mergeCell ref="A177:B178"/>
-    <mergeCell ref="A179:B180"/>
-    <mergeCell ref="A181:B182"/>
-    <mergeCell ref="A183:B184"/>
-    <mergeCell ref="A185:B186"/>
     <mergeCell ref="C107:I108"/>
     <mergeCell ref="C109:I110"/>
     <mergeCell ref="C111:I112"/>
@@ -6267,26 +5295,11 @@
     <mergeCell ref="C149:I150"/>
     <mergeCell ref="C151:I152"/>
     <mergeCell ref="C153:I154"/>
-    <mergeCell ref="C155:I156"/>
-    <mergeCell ref="C157:I158"/>
-    <mergeCell ref="C159:I160"/>
-    <mergeCell ref="C161:I162"/>
-    <mergeCell ref="C163:I164"/>
-    <mergeCell ref="C165:I166"/>
-    <mergeCell ref="C167:I168"/>
-    <mergeCell ref="C169:I170"/>
-    <mergeCell ref="C171:I172"/>
-    <mergeCell ref="C173:I174"/>
-    <mergeCell ref="C175:I176"/>
-    <mergeCell ref="C177:I178"/>
-    <mergeCell ref="C179:I180"/>
-    <mergeCell ref="C181:I182"/>
-    <mergeCell ref="C183:I184"/>
-    <mergeCell ref="C185:I186"/>
     <mergeCell ref="A109:B110"/>
     <mergeCell ref="A111:B112"/>
     <mergeCell ref="A105:B106"/>
     <mergeCell ref="A107:B108"/>
+    <mergeCell ref="A77:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
   <si>
     <t>学习日期</t>
   </si>
@@ -177,6 +177,12 @@
   <si>
     <t>串</t>
   </si>
+  <si>
+    <t>树与二叉树</t>
+  </si>
+  <si>
+    <t>二型曲线积分</t>
+  </si>
 </sst>
 </file>
 
@@ -188,10 +194,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -676,16 +689,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,119 +704,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +827,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73:K74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1317,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1371,7 +1387,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1424,7 +1440,9 @@
       <c r="N11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
@@ -1476,7 +1494,9 @@
       <c r="N13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
@@ -1525,8 +1545,8 @@
       <c r="M15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="1">
-        <v>14</v>
+      <c r="N15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1578,7 +1598,7 @@
         <v>12</v>
       </c>
       <c r="N17" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1630,7 +1650,7 @@
         <v>12</v>
       </c>
       <c r="N19" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1734,7 +1754,7 @@
         <v>12</v>
       </c>
       <c r="N23" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1786,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="N25" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1838,7 +1858,7 @@
         <v>12</v>
       </c>
       <c r="N27" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1890,7 +1910,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1942,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1994,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2046,7 +2066,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2098,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2150,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2202,7 +2222,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2232,15 +2252,15 @@
         <v>45559</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
       <c r="J43" s="1" t="s">
         <v>12</v>
       </c>
@@ -2254,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2263,13 +2283,13 @@
     <row r="44" spans="1:17">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2306,7 +2326,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2358,7 +2378,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2406,8 +2426,8 @@
       <c r="L49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M49" s="1">
-        <v>6</v>
+      <c r="M49" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -2457,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="M51" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -2507,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="M53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -2557,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="M55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2606,7 +2626,9 @@
       <c r="L57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -2654,7 +2676,9 @@
       <c r="L59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="1"/>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -2699,8 +2723,8 @@
       <c r="K61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L61" s="1">
-        <v>3</v>
+      <c r="L61" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -2748,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -2796,7 +2820,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -2844,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -2891,7 +2915,9 @@
       <c r="K69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L69" s="1"/>
+      <c r="L69" s="1">
+        <v>1</v>
+      </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -2934,8 +2960,8 @@
       <c r="J71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K71" s="1">
-        <v>1</v>
+      <c r="K71" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -2980,7 +3006,9 @@
       <c r="J73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="1"/>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -3024,7 +3052,9 @@
       <c r="J75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="1"/>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -3065,7 +3095,9 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
@@ -3094,9 +3126,13 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2">
+        <v>45577</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3132,9 +3168,13 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2">
+        <v>45577</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -5234,9 +5274,7 @@
     <mergeCell ref="A71:B72"/>
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
-    <mergeCell ref="A79:B80"/>
     <mergeCell ref="C79:I80"/>
-    <mergeCell ref="A81:B82"/>
     <mergeCell ref="A83:B84"/>
     <mergeCell ref="A85:B86"/>
     <mergeCell ref="A87:B88"/>
@@ -5300,6 +5338,8 @@
     <mergeCell ref="A105:B106"/>
     <mergeCell ref="A107:B108"/>
     <mergeCell ref="A77:B78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="A81:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="54">
   <si>
     <t>学习日期</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>二型曲线积分</t>
+  </si>
+  <si>
+    <t>图6.1~6.3</t>
+  </si>
+  <si>
+    <t>图6.4</t>
+  </si>
+  <si>
+    <t>矩阵运算</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1154,8 @@
   <sheetPr/>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79:J80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1279,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1333,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1387,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1441,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1495,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1548,7 +1557,9 @@
       <c r="N15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1">
+        <v>3</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
@@ -1597,10 +1608,12 @@
       <c r="M17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="1">
-        <v>14</v>
-      </c>
-      <c r="O17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
@@ -1649,10 +1662,12 @@
       <c r="M19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="1">
-        <v>13</v>
-      </c>
-      <c r="O19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
@@ -1701,7 +1716,7 @@
       <c r="M21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O21" s="1"/>
@@ -1753,7 +1768,7 @@
       <c r="M23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O23" s="1"/>
@@ -1805,7 +1820,7 @@
       <c r="M25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O25" s="1"/>
@@ -1858,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="N27" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1910,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1962,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2014,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2066,7 +2081,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2118,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2170,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2222,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2274,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2326,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2378,7 +2393,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2429,7 +2444,9 @@
       <c r="M49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>3</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -2476,10 +2493,12 @@
       <c r="L51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M51" s="1">
-        <v>6</v>
-      </c>
-      <c r="N51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2</v>
+      </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -2526,10 +2545,12 @@
       <c r="L53" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M53" s="1">
-        <v>5</v>
-      </c>
-      <c r="N53" s="1"/>
+      <c r="M53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -2577,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="M55" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2627,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="M57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2677,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="M59" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2726,7 +2747,9 @@
       <c r="L61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1">
+        <v>3</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -2771,10 +2794,12 @@
       <c r="K63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L63" s="1">
-        <v>3</v>
-      </c>
-      <c r="M63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M63" s="1">
+        <v>2</v>
+      </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -2819,10 +2844,12 @@
       <c r="K65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="1">
-        <v>3</v>
-      </c>
-      <c r="M65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -2867,10 +2894,12 @@
       <c r="K67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="1">
-        <v>2</v>
-      </c>
-      <c r="M67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -2915,8 +2944,8 @@
       <c r="K69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L69" s="1">
-        <v>1</v>
+      <c r="L69" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -2963,7 +2992,9 @@
       <c r="K71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="1"/>
+      <c r="L71" s="1">
+        <v>3</v>
+      </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -3006,10 +3037,12 @@
       <c r="J73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K73" s="1">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1"/>
+      <c r="K73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -3052,10 +3085,12 @@
       <c r="J75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K75" s="1">
-        <v>1</v>
-      </c>
-      <c r="L75" s="1"/>
+      <c r="K75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2</v>
+      </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -3098,8 +3133,12 @@
       <c r="J77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -3139,8 +3178,12 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="J79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -3181,8 +3224,12 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
+      <c r="J81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -3210,17 +3257,25 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="2"/>
+      <c r="A83" s="2">
+        <v>45578</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
+      <c r="J83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -3248,16 +3303,22 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="2"/>
+      <c r="A85" s="2">
+        <v>45579</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -3286,9 +3347,13 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="2"/>
+      <c r="A87" s="2">
+        <v>45580</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -5275,9 +5340,6 @@
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
     <mergeCell ref="C79:I80"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="A87:B88"/>
     <mergeCell ref="A89:B90"/>
     <mergeCell ref="A91:B92"/>
     <mergeCell ref="A93:B94"/>
@@ -5340,6 +5402,9 @@
     <mergeCell ref="A77:B78"/>
     <mergeCell ref="A79:B80"/>
     <mergeCell ref="A81:B82"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="A87:B88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
   <si>
     <t>学习日期</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>矩阵运算</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>数字特征</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87:K88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,7 +1294,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1342,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1396,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1450,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1504,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1558,7 +1564,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1612,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1666,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1719,7 +1725,9 @@
       <c r="N21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
@@ -1771,7 +1779,9 @@
       <c r="N23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
@@ -1823,7 +1833,9 @@
       <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
@@ -1872,8 +1884,8 @@
       <c r="M27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="1">
-        <v>14</v>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1925,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="N29" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1977,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2029,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2081,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2133,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2185,7 +2197,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2237,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2289,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2341,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2393,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2445,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="N49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2497,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="N51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2549,7 +2561,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2598,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="M55" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2648,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="M57" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2698,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="M59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2748,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="M61" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2798,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="M63" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -2848,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="M65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -2898,7 +2910,7 @@
         <v>12</v>
       </c>
       <c r="M67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -2947,7 +2959,9 @@
       <c r="L69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="1"/>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -2992,8 +3006,8 @@
       <c r="K71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L71" s="1">
-        <v>3</v>
+      <c r="L71" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -3041,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="L73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -3089,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="L75" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -3137,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -3184,7 +3198,9 @@
       <c r="K79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L79" s="1"/>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -3230,7 +3246,9 @@
       <c r="K81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L81" s="1"/>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -3273,8 +3291,8 @@
       <c r="J83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K83" s="1">
-        <v>1</v>
+      <c r="K83" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -3319,7 +3337,9 @@
       <c r="J85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K85" s="1"/>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -3360,7 +3380,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -3389,9 +3411,13 @@
       <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="2"/>
+      <c r="A89" s="2">
+        <v>45581</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3427,9 +3453,13 @@
       <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="2"/>
+      <c r="A91" s="2">
+        <v>45581</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -5340,8 +5370,6 @@
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
     <mergeCell ref="C79:I80"/>
-    <mergeCell ref="A89:B90"/>
-    <mergeCell ref="A91:B92"/>
     <mergeCell ref="A93:B94"/>
     <mergeCell ref="C95:I96"/>
     <mergeCell ref="A95:B96"/>
@@ -5405,6 +5433,8 @@
     <mergeCell ref="A83:B84"/>
     <mergeCell ref="A85:B86"/>
     <mergeCell ref="A87:B88"/>
+    <mergeCell ref="A89:B90"/>
+    <mergeCell ref="A91:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
   <si>
     <t>学习日期</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>数字特征</t>
+  </si>
+  <si>
+    <t>语法p1~30</t>
   </si>
 </sst>
 </file>
@@ -1160,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:I92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95:J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1294,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1348,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1402,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1456,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1510,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1564,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1618,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1672,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1726,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1780,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1834,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1887,7 +1890,9 @@
       <c r="N27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
@@ -1936,8 +1941,8 @@
       <c r="M29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="1">
-        <v>14</v>
+      <c r="N29" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1989,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="N31" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2041,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="N33" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2093,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2145,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2197,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2249,7 +2254,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2301,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2353,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2405,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2457,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="N49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2509,7 +2514,7 @@
         <v>12</v>
       </c>
       <c r="N51" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2561,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2609,8 +2614,8 @@
       <c r="L55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M55" s="1">
-        <v>6</v>
+      <c r="M55" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -2660,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="M57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2710,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="M59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2760,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="M61" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2810,7 +2815,7 @@
         <v>12</v>
       </c>
       <c r="M63" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -2860,7 +2865,7 @@
         <v>12</v>
       </c>
       <c r="M65" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -2910,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="M67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -2960,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="M69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -3009,7 +3014,9 @@
       <c r="L71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M71" s="1"/>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -3054,8 +3061,8 @@
       <c r="K73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L73" s="1">
-        <v>3</v>
+      <c r="L73" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -3102,8 +3109,8 @@
       <c r="K75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L75" s="1">
-        <v>3</v>
+      <c r="L75" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -3151,7 +3158,7 @@
         <v>12</v>
       </c>
       <c r="L77" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -3199,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="L79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -3247,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="L81" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -3294,7 +3301,9 @@
       <c r="K83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L83" s="1"/>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -3337,8 +3346,8 @@
       <c r="J85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K85" s="1">
-        <v>1</v>
+      <c r="K85" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -3383,7 +3392,9 @@
       <c r="J87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K87" s="1"/>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -3424,7 +3435,9 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -3466,7 +3479,9 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3495,9 +3510,13 @@
       <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2">
+        <v>45582</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -5370,7 +5389,6 @@
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
     <mergeCell ref="C79:I80"/>
-    <mergeCell ref="A93:B94"/>
     <mergeCell ref="C95:I96"/>
     <mergeCell ref="A95:B96"/>
     <mergeCell ref="A97:B98"/>
@@ -5435,6 +5453,7 @@
     <mergeCell ref="A87:B88"/>
     <mergeCell ref="A89:B90"/>
     <mergeCell ref="A91:B92"/>
+    <mergeCell ref="A93:B94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="59">
   <si>
     <t>学习日期</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>语法p1~30</t>
+  </si>
+  <si>
+    <t>语法p31~42</t>
+  </si>
+  <si>
+    <t>查找</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:Q154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95:J96"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1297,7 +1303,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1351,7 +1357,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1405,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1459,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1513,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1567,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1621,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1675,7 +1681,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1729,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="O21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1783,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1837,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1891,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1944,7 +1950,9 @@
       <c r="N29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="1"/>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
@@ -1993,8 +2001,8 @@
       <c r="M31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N31" s="1">
-        <v>14</v>
+      <c r="N31" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -2045,8 +2053,8 @@
       <c r="M33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="1">
-        <v>14</v>
+      <c r="N33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2098,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="N35" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2150,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2202,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2254,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2306,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2358,7 +2366,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2410,7 +2418,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2462,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="N49" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2514,7 +2522,7 @@
         <v>12</v>
       </c>
       <c r="N51" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2566,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2617,7 +2625,9 @@
       <c r="M55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N55" s="1"/>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -2664,8 +2674,8 @@
       <c r="L57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M57" s="1">
-        <v>6</v>
+      <c r="M57" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -2714,8 +2724,8 @@
       <c r="L59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M59" s="1">
-        <v>6</v>
+      <c r="M59" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -2765,7 +2775,7 @@
         <v>12</v>
       </c>
       <c r="M61" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2815,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="M63" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -2865,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="M65" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -2915,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="M67" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -2965,7 +2975,7 @@
         <v>12</v>
       </c>
       <c r="M69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -3015,7 +3025,7 @@
         <v>12</v>
       </c>
       <c r="M71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -3064,7 +3074,9 @@
       <c r="L73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M73" s="1"/>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -3112,7 +3124,9 @@
       <c r="L75" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M75" s="1"/>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -3157,8 +3171,8 @@
       <c r="K77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L77" s="1">
-        <v>3</v>
+      <c r="L77" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -3206,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="L79" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -3254,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="L81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -3302,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="L83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -3349,7 +3363,9 @@
       <c r="K85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L85" s="1"/>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -3392,8 +3408,8 @@
       <c r="J87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K87" s="1">
-        <v>1</v>
+      <c r="K87" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -3438,7 +3454,9 @@
       <c r="J89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K89" s="1"/>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -3482,7 +3500,9 @@
       <c r="J91" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K91" s="1"/>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -3523,7 +3543,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="J93" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3552,9 +3574,13 @@
       <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2">
+        <v>45583</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3590,9 +3616,13 @@
       <c r="Q96" s="1"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="2"/>
+      <c r="A97" s="2">
+        <v>45583</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -5389,9 +5419,6 @@
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
     <mergeCell ref="C79:I80"/>
-    <mergeCell ref="C95:I96"/>
-    <mergeCell ref="A95:B96"/>
-    <mergeCell ref="A97:B98"/>
     <mergeCell ref="A99:B100"/>
     <mergeCell ref="A101:B102"/>
     <mergeCell ref="A103:B104"/>
@@ -5454,6 +5481,9 @@
     <mergeCell ref="A89:B90"/>
     <mergeCell ref="A91:B92"/>
     <mergeCell ref="A93:B94"/>
+    <mergeCell ref="A95:B96"/>
+    <mergeCell ref="C95:I96"/>
+    <mergeCell ref="A97:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/艾宾浩斯学习曲线.xlsx
+++ b/艾宾浩斯学习曲线.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
   <si>
     <t>学习日期</t>
   </si>
@@ -181,9 +181,6 @@
     <t>树与二叉树</t>
   </si>
   <si>
-    <t>二型曲线积分</t>
-  </si>
-  <si>
     <t>图6.1~6.3</t>
   </si>
   <si>
@@ -206,6 +203,12 @@
   </si>
   <si>
     <t>查找</t>
+  </si>
+  <si>
+    <t>语法p43~59</t>
+  </si>
+  <si>
+    <t>大数定律与中心极限定理</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q154"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19:Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101:M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1303,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1357,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="O7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1411,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="O9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1465,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1519,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="O13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1573,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1627,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="O17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1681,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1735,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="O21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1789,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="O23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1843,7 +1846,7 @@
         <v>12</v>
       </c>
       <c r="O25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -1897,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="O27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -1951,7 +1954,7 @@
         <v>12</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2004,7 +2007,9 @@
       <c r="N31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O31" s="1"/>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
@@ -2056,7 +2061,9 @@
       <c r="N33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="1"/>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
@@ -2105,8 +2112,8 @@
       <c r="M35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="1">
-        <v>14</v>
+      <c r="N35" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -2158,7 +2165,7 @@
         <v>12</v>
       </c>
       <c r="N37" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -2210,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="N39" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -2262,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="N41" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2314,7 +2321,7 @@
         <v>12</v>
       </c>
       <c r="N43" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -2366,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="N45" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -2418,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="N47" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -2470,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="N49" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -2522,7 +2529,7 @@
         <v>12</v>
       </c>
       <c r="N51" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2574,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="N53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -2626,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="N55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -2677,7 +2684,9 @@
       <c r="M57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N57" s="1"/>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -2727,7 +2736,9 @@
       <c r="M59" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -2774,8 +2785,8 @@
       <c r="L61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M61" s="1">
-        <v>6</v>
+      <c r="M61" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -2825,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="M63" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -2875,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="M65" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -2925,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="M67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -2975,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="M69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -3025,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="M71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -3075,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="M73" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -3125,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="M75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -3174,7 +3185,9 @@
       <c r="L77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M77" s="1"/>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -3219,8 +3232,8 @@
       <c r="K79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L79" s="1">
-        <v>3</v>
+      <c r="L79" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -3249,7 +3262,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2">
-        <v>45577</v>
+        <v>45578</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
@@ -3297,7 +3310,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2">
-        <v>45578</v>
+        <v>45579</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
@@ -3345,7 +3358,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
@@ -3393,7 +3406,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
@@ -3454,8 +3467,8 @@
       <c r="J89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K89" s="1">
-        <v>1</v>
+      <c r="K89" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -3485,7 +3498,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
@@ -3531,7 +3544,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
@@ -3587,7 +3600,9 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -3617,7 +3632,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="2">
-        <v>45583</v>
+        <v>45584</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
@@ -3658,9 +3673,13 @@
       <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2">
+        <v>45584</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -4683,46 +4702,8 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17">
-      <c r="A153" s="2"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="761">
+  <mergeCells count="751">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="J7:J8"/>
@@ -4798,7 +4779,6 @@
     <mergeCell ref="J147:J148"/>
     <mergeCell ref="J149:J150"/>
     <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J154"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -4874,7 +4854,6 @@
     <mergeCell ref="K147:K148"/>
     <mergeCell ref="K149:K150"/>
     <mergeCell ref="K151:K152"/>
-    <mergeCell ref="K153:K154"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="L7:L8"/>
@@ -4950,7 +4929,6 @@
     <mergeCell ref="L147:L148"/>
     <mergeCell ref="L149:L150"/>
     <mergeCell ref="L151:L152"/>
-    <mergeCell ref="L153:L154"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="M7:M8"/>
@@ -5026,7 +5004,6 @@
     <mergeCell ref="M147:M148"/>
     <mergeCell ref="M149:M150"/>
     <mergeCell ref="M151:M152"/>
-    <mergeCell ref="M153:M154"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
@@ -5102,7 +5079,6 @@
     <mergeCell ref="N147:N148"/>
     <mergeCell ref="N149:N150"/>
     <mergeCell ref="N151:N152"/>
-    <mergeCell ref="N153:N154"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O8"/>
@@ -5178,7 +5154,6 @@
     <mergeCell ref="O147:O148"/>
     <mergeCell ref="O149:O150"/>
     <mergeCell ref="O151:O152"/>
-    <mergeCell ref="O153:O154"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="P7:P8"/>
@@ -5254,7 +5229,6 @@
     <mergeCell ref="P147:P148"/>
     <mergeCell ref="P149:P150"/>
     <mergeCell ref="P151:P152"/>
-    <mergeCell ref="P153:P154"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="Q7:Q8"/>
@@ -5330,7 +5304,6 @@
     <mergeCell ref="Q147:Q148"/>
     <mergeCell ref="Q149:Q150"/>
     <mergeCell ref="Q151:Q152"/>
-    <mergeCell ref="Q153:Q154"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="C1:I4"/>
     <mergeCell ref="J1:Q2"/>
@@ -5419,10 +5392,8 @@
     <mergeCell ref="A73:B74"/>
     <mergeCell ref="A75:B76"/>
     <mergeCell ref="C79:I80"/>
-    <mergeCell ref="A99:B100"/>
     <mergeCell ref="A101:B102"/>
     <mergeCell ref="A103:B104"/>
-    <mergeCell ref="C99:I100"/>
     <mergeCell ref="A113:B114"/>
     <mergeCell ref="A115:B116"/>
     <mergeCell ref="A117:B118"/>
@@ -5443,7 +5414,6 @@
     <mergeCell ref="A147:B148"/>
     <mergeCell ref="A149:B150"/>
     <mergeCell ref="A151:B152"/>
-    <mergeCell ref="A153:B154"/>
     <mergeCell ref="C107:I108"/>
     <mergeCell ref="C109:I110"/>
     <mergeCell ref="C111:I112"/>
@@ -5467,7 +5437,6 @@
     <mergeCell ref="C147:I148"/>
     <mergeCell ref="C149:I150"/>
     <mergeCell ref="C151:I152"/>
-    <mergeCell ref="C153:I154"/>
     <mergeCell ref="A109:B110"/>
     <mergeCell ref="A111:B112"/>
     <mergeCell ref="A105:B106"/>
@@ -5484,6 +5453,8 @@
     <mergeCell ref="A95:B96"/>
     <mergeCell ref="C95:I96"/>
     <mergeCell ref="A97:B98"/>
+    <mergeCell ref="C99:I100"/>
+    <mergeCell ref="A99:B100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
